--- a/xlsx/a69_f27UPPachuca.xlsx
+++ b/xlsx/a69_f27UPPachuca.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\2023\SIPOT\2DO TRIMESTRE 2023\Observaciones ITHAI\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guada\Desktop\4to trimestre\CARGA PLATAFORMA\VOBO.2\XLS\sin cargar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F707E5-5446-4E1B-A3E0-1C3C0441D724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415AF86E-1D9D-4AC0-AAA3-07B88D8C345F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="117">
   <si>
     <t>50750</t>
   </si>
@@ -206,7 +206,7 @@
     <t>Razón social del titular al cual se otorgó el acto jurídico</t>
   </si>
   <si>
-    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/07/2023 -&gt; Sexo (catálogo)</t>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/04/2023 -&gt; Sexo (catálogo)</t>
   </si>
   <si>
     <t xml:space="preserve">Fecha de inicio de vigencia del acto jurídico </t>
@@ -296,43 +296,100 @@
     <t>No</t>
   </si>
   <si>
+    <t>UPP/001/2018   23-34</t>
+  </si>
+  <si>
+    <t>Erika</t>
+  </si>
+  <si>
+    <t>Badillo</t>
+  </si>
+  <si>
+    <t>3, 4 Y 5</t>
+  </si>
+  <si>
     <t>Departamento de Adquisiciones de Bienes y Servicios (UPP)</t>
   </si>
   <si>
-    <t>Consesión de Cafeteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extención de contrato </t>
-  </si>
-  <si>
-    <t>UPP/001/2018   23-34</t>
-  </si>
-  <si>
-    <t>Comité Técnico de Evaluación y Consesión de la Cafetería y Similares del genero de la Universidad Politécnica de Pachuca</t>
-  </si>
-  <si>
-    <t>Erika</t>
-  </si>
-  <si>
-    <t>Ramirez</t>
-  </si>
-  <si>
-    <t>Badillo</t>
-  </si>
-  <si>
-    <t>3, 4 Y 5</t>
-  </si>
-  <si>
-    <t>En el periodo que se informa, la Universidad Politécnica de Pachuca otorgo la consesion a una persona fisica la vigencia del contraro es del 1/05/2023 al 31/12/2023. Las tablas adyacentes, hipervínculos y criterios que se encuentran vacíos es porque no lo requiere este procedimiento.</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/f_27/23-34%20CAFETERIA%20MAYO-DIC-2023%20%282%29%20%281%29.pdf</t>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/27/23-34%20CAFETERIA%20MAYO-DIC-2023%20TESTADO.pdf </t>
+  </si>
+  <si>
+    <t>Concesión de Cafetería</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extensión de contrato </t>
+  </si>
+  <si>
+    <t>Comité Técnico de Evaluación y Concesión de la Cafetería y Similares del genero de la Universidad Politécnica de Pachuca</t>
+  </si>
+  <si>
+    <t>Ramírez</t>
+  </si>
+  <si>
+    <t>En el periodo que se informa, la Universidad Politécnica de Pachuca otorgo la concesión a una persona física,  el contrato tiene una vigencia de inicio 01/05/2023 al 31/12/2023. Las tablas adyacentes, hipervínculos y criterios que se encuentran vacíos es porque no lo requiere este procedimiento.</t>
+  </si>
+  <si>
+    <t>RM-TTE0620                      R-762</t>
+  </si>
+  <si>
+    <t>Pago del 50% de colegiatura de maestría del mes de Octubre, correspondiente a cubrir por parte de La universidad en relación a la prestación de servicios académicos por parte de la universidad del valle de México a establecido en el convenio de colaboración en materia de capacitación administrativa</t>
+  </si>
+  <si>
+    <t>Adquisición con recurso estatal, presupuesto  de  egresos estatal  monto  máximo y mínimo  para  adjudicación  directa  $74,472.00 incluido impuestos, no se  cuenta  con  estudio  de  mercado  y  autorización  del  solicitante ya que es un servicio</t>
+  </si>
+  <si>
+    <t>RM-TTE0627                      R-761</t>
+  </si>
+  <si>
+    <t>Pago colegiatura maestría octubre 2023  plan de estudios: Maestría en Administración y Gestión Empresarial 2018</t>
+  </si>
+  <si>
+    <t>RM-TTE0691                      R-764</t>
+  </si>
+  <si>
+    <t>Colegiatura7parc 3 pc prog:MNDO32F23 ciclo:202370 niv acad:maestria trimestral</t>
+  </si>
+  <si>
+    <t>RM-TTE0740                      R-763</t>
+  </si>
+  <si>
+    <t>Cargo pago colegiatura maestría noviembre 2023  Plan de estudios: maestría en administración y gestión empresarial 2018)</t>
+  </si>
+  <si>
+    <t>RM-TTE0832                      R-766</t>
+  </si>
+  <si>
+    <t>Pago del 50% de colegiatura de maestría del mes de diciembre, correspondiente a cubrir por parte de la universidad en relación a la prestación de servicios académicos por parte de la universidad del valle de México establecido en el convenio de colaboración en materia de capacitación administrativa</t>
+  </si>
+  <si>
+    <t>RM-TTE0852                      R-834</t>
+  </si>
+  <si>
+    <t>Pago del 50% de colegiatura de maestría del mes de Diciembre, correspondiente a cubrir por parte de la universidad en relación a la prestación de servicios académicos por parte del uclah, establecido en el convenio de colaboración en materia de capacitación administrativa</t>
+  </si>
+  <si>
+    <t>RM-TTE0898                      R-834</t>
+  </si>
+  <si>
+    <t>Pago del 50% de colegiatura de maestría del mes de enero, correspondiente a cubrir por parte de la universidad en relación a la prestación de servicios académicos por parte del UCLAH, establecido en el convenio de colaboración en materia de capacitación administrativa</t>
+  </si>
+  <si>
+    <t>Universidad del Valle de México</t>
+  </si>
+  <si>
+    <t>Colegio Londres de Pachuca</t>
+  </si>
+  <si>
+    <t>En el periodo que se informa, la Universidad Politécnica de Pachuca, no celebró ningún tipo de contrato derivado a que los montos no rebasaban las 300 VSMV. La adjudicación se realizo con una persona moral.  Las tablas adyacentes, hipervínculos y criterios que se encuentran vacíos es porque no lo requiere este procedimiento. Se reporta este gasto ya que se se encuentra como servicio de capacitacion en el clasificador por objeto del gasto capitulo 3000.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,37 +466,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -460,9 +518,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -470,44 +528,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -557,9 +615,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -606,7 +664,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -615,208 +673,183 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC8"/>
+  <dimension ref="A1:AC15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R2" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="87.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="6" max="6" width="61.140625" customWidth="1"/>
+    <col min="7" max="7" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="108.7109375" customWidth="1"/>
+    <col min="9" max="9" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="58.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="38" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="63.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="157.7109375" customWidth="1"/>
-    <col min="19" max="19" width="55.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="77.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="61.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="69.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="62" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="155.140625" customWidth="1"/>
+    <col min="19" max="19" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="76.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="61.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="51.7109375" customWidth="1"/>
+    <col min="25" max="25" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="73.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="95.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -824,7 +857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -841,7 +874,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -852,191 +885,191 @@
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:29" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="X4" t="s">
+      <c r="X4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Z4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AB4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AC4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:29" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="X5" t="s">
+      <c r="X5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Y5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="Z5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AA5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AB5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AC5" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>44</v>
       </c>
@@ -1069,170 +1102,625 @@
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
     </row>
-    <row r="7" spans="1:29" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="U7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="V7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="W7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="X7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Y7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="Z7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AA7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AB7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AC7" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2023</v>
       </c>
-      <c r="B8" s="3">
-        <v>45017</v>
-      </c>
-      <c r="C8" s="3">
-        <v>45107</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="B8" s="4">
+        <v>45200</v>
+      </c>
+      <c r="C8" s="4">
+        <v>45291</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O8" s="4">
+        <v>45047</v>
+      </c>
+      <c r="P8" s="4">
+        <v>45291</v>
+      </c>
+      <c r="Q8" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="R8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="S8" s="3">
+        <v>30000</v>
+      </c>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="AA8" s="4">
+        <v>45301</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>45301</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="4">
+        <v>45200</v>
+      </c>
+      <c r="C9" s="4">
+        <v>45291</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O8" s="3">
-        <v>45047</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3">
+        <v>2167</v>
+      </c>
+      <c r="T9" s="3">
+        <v>2167</v>
+      </c>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>45301</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>45301</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="4">
+        <v>45200</v>
+      </c>
+      <c r="C10" s="4">
         <v>45291</v>
       </c>
-      <c r="Q8" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="S8" s="2">
-        <v>30000</v>
-      </c>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2" t="s">
+      <c r="D10" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3">
+        <v>1468</v>
+      </c>
+      <c r="T10" s="3">
+        <v>1468</v>
+      </c>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>45117</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>45117</v>
-      </c>
-      <c r="AC8" s="7" t="s">
-        <v>97</v>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>45301</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>45301</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="4">
+        <v>45200</v>
+      </c>
+      <c r="C11" s="4">
+        <v>45291</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3">
+        <v>2167</v>
+      </c>
+      <c r="T11" s="3">
+        <v>2167</v>
+      </c>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>45301</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>45301</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="4">
+        <v>45200</v>
+      </c>
+      <c r="C12" s="4">
+        <v>45291</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3">
+        <v>1284.5</v>
+      </c>
+      <c r="T12" s="3">
+        <v>1284.5</v>
+      </c>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>45301</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>45301</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B13" s="4">
+        <v>45200</v>
+      </c>
+      <c r="C13" s="4">
+        <v>45291</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3">
+        <v>2167</v>
+      </c>
+      <c r="T13" s="3">
+        <v>2167</v>
+      </c>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>45301</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>45301</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B14" s="4">
+        <v>45200</v>
+      </c>
+      <c r="C14" s="4">
+        <v>45291</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3">
+        <v>1284.5</v>
+      </c>
+      <c r="T14" s="3">
+        <v>1284.5</v>
+      </c>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>45301</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>45301</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B15" s="4">
+        <v>45200</v>
+      </c>
+      <c r="C15" s="4">
+        <v>45291</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="N15" s="6"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3">
+        <v>1835</v>
+      </c>
+      <c r="T15" s="3">
+        <v>1835</v>
+      </c>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>45301</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>45301</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1246,24 +1734,23 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D200" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8:I201" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8:I200" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Hidden_28</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N8:N201" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N8:N200" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Hidden_313</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X8:X201" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X8:X200" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>Hidden_423</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="R8" r:id="rId1" xr:uid="{75B7CEBE-7A06-41A8-8F8A-FA4DF05FF82F}"/>
+    <hyperlink ref="R8" r:id="rId1" xr:uid="{AD0D20B1-F3BD-4391-9EC4-0CC028F4EE72}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
